--- a/initial_claims/WI/WI_data.xlsx
+++ b/initial_claims/WI/WI_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wwwmad0a4209\vol1\run\_wwwroot\WisconsinGov\uistats\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/Documents/GitHub/coronavirus-unemployment/initial_claims/WI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E6FAE6-4596-4A2F-A7EB-FAA092E7D275}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62F18855-4D90-4B48-9891-348CEADBFB4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2835" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29040" yWindow="0" windowWidth="29040" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Claims by County" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
   <si>
     <t>Grand Total</t>
   </si>
@@ -328,13 +328,16 @@
   </si>
   <si>
     <t>UI Week 23</t>
+  </si>
+  <si>
+    <t>UI Week 24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1178,28 +1181,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y78"/>
+  <dimension ref="A1:Z78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" customWidth="1"/>
-    <col min="20" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.1640625" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" customWidth="1"/>
+    <col min="20" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
@@ -1273,10 +1276,13 @@
         <v>99</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1350,10 +1356,13 @@
         <v>43</v>
       </c>
       <c r="Y2">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="Z2">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1427,10 +1436,13 @@
         <v>56</v>
       </c>
       <c r="Y3">
-        <v>2146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="Z3">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1504,10 +1516,13 @@
         <v>173</v>
       </c>
       <c r="Y4">
-        <v>5343</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="Z4">
+        <v>5536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1581,10 +1596,13 @@
         <v>40</v>
       </c>
       <c r="Y5">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="Z5">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1658,10 +1676,13 @@
         <v>951</v>
       </c>
       <c r="Y6">
-        <v>30048</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1033</v>
+      </c>
+      <c r="Z6">
+        <v>31081</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1735,10 +1756,13 @@
         <v>33</v>
       </c>
       <c r="Y7">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="Z7">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1812,10 +1836,13 @@
         <v>56</v>
       </c>
       <c r="Y8">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="Z8">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1889,10 +1916,13 @@
         <v>225</v>
       </c>
       <c r="Y9">
-        <v>6611</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="Z9">
+        <v>6909</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1966,10 +1996,13 @@
         <v>261</v>
       </c>
       <c r="Y10">
-        <v>6682</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="Z10">
+        <v>6890</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2043,10 +2076,13 @@
         <v>154</v>
       </c>
       <c r="Y11">
-        <v>3209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="Z11">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2120,10 +2156,13 @@
         <v>313</v>
       </c>
       <c r="Y12">
-        <v>8470</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="Z12">
+        <v>8821</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2197,10 +2236,13 @@
         <v>40</v>
       </c>
       <c r="Y13">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="Z13">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2274,10 +2316,13 @@
         <v>2300</v>
       </c>
       <c r="Y14">
-        <v>53315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+        <v>2349</v>
+      </c>
+      <c r="Z14">
+        <v>55664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2351,10 +2396,13 @@
         <v>423</v>
       </c>
       <c r="Y15">
-        <v>9874</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="Z15">
+        <v>10272</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2428,10 +2476,13 @@
         <v>60</v>
       </c>
       <c r="Y16">
-        <v>3229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="Z16">
+        <v>3302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2505,10 +2556,13 @@
         <v>94</v>
       </c>
       <c r="Y17">
-        <v>3193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="Z17">
+        <v>3301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2582,10 +2636,13 @@
         <v>158</v>
       </c>
       <c r="Y18">
-        <v>4013</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="Z18">
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2659,10 +2716,13 @@
         <v>364</v>
       </c>
       <c r="Y19">
-        <v>11121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="Z19">
+        <v>11480</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2736,10 +2796,13 @@
         <v>13</v>
       </c>
       <c r="Y20">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="Z20">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2813,10 +2876,13 @@
         <v>428</v>
       </c>
       <c r="Y21">
-        <v>12577</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+      <c r="Z21">
+        <v>13071</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2890,10 +2956,13 @@
         <v>35</v>
       </c>
       <c r="Y22">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="Z22">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2967,10 +3036,13 @@
         <v>153</v>
       </c>
       <c r="Y23">
-        <v>4470</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="Z23">
+        <v>4629</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3044,10 +3116,13 @@
         <v>183</v>
       </c>
       <c r="Y24">
-        <v>3483</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="Z24">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3121,10 +3196,13 @@
         <v>81</v>
       </c>
       <c r="Y25">
-        <v>2558</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="Z25">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3198,10 +3276,13 @@
         <v>112</v>
       </c>
       <c r="Y26">
-        <v>3430</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="Z26">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3275,10 +3356,13 @@
         <v>30</v>
       </c>
       <c r="Y27">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="Z27">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3352,10 +3436,13 @@
         <v>73</v>
       </c>
       <c r="Y28">
-        <v>2601</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="Z28">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3429,10 +3516,13 @@
         <v>291</v>
       </c>
       <c r="Y29">
-        <v>8569</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="Z29">
+        <v>8959</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3506,10 +3596,13 @@
         <v>163</v>
       </c>
       <c r="Y30">
-        <v>3640</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="Z30">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3583,10 +3676,13 @@
         <v>470</v>
       </c>
       <c r="Y31">
-        <v>14651</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+      <c r="Z31">
+        <v>15133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3660,10 +3756,13 @@
         <v>55</v>
       </c>
       <c r="Y32">
-        <v>2090</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="Z32">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3737,10 +3836,13 @@
         <v>453</v>
       </c>
       <c r="Y33">
-        <v>13413</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+      <c r="Z33">
+        <v>14002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3814,10 +3916,13 @@
         <v>47</v>
       </c>
       <c r="Y34">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="Z34">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3891,10 +3996,13 @@
         <v>77</v>
       </c>
       <c r="Y35">
-        <v>1838</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="Z35">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -3968,10 +4076,13 @@
         <v>126</v>
       </c>
       <c r="Y36">
-        <v>3783</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="Z36">
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -4045,10 +4156,13 @@
         <v>306</v>
       </c>
       <c r="Y37">
-        <v>10468</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="Z37">
+        <v>10818</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -4122,10 +4236,13 @@
         <v>805</v>
       </c>
       <c r="Y38">
-        <v>18398</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+        <v>963</v>
+      </c>
+      <c r="Z38">
+        <v>19361</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -4199,10 +4316,13 @@
         <v>351</v>
       </c>
       <c r="Y39">
-        <v>6031</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="Z39">
+        <v>6239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -4276,10 +4396,13 @@
         <v>106</v>
       </c>
       <c r="Y40">
-        <v>2334</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="Z40">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -4353,10 +4476,13 @@
         <v>25</v>
       </c>
       <c r="Y41">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="Z41">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -4430,10 +4556,13 @@
         <v>4697</v>
       </c>
       <c r="Y42">
-        <v>114863</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+        <v>4934</v>
+      </c>
+      <c r="Z42">
+        <v>119797</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -4507,10 +4636,13 @@
         <v>256</v>
       </c>
       <c r="Y43">
-        <v>4740</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="Z43">
+        <v>4932</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -4584,10 +4716,13 @@
         <v>105</v>
       </c>
       <c r="Y44">
-        <v>3887</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="Z44">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -4661,10 +4796,13 @@
         <v>128</v>
       </c>
       <c r="Y45">
-        <v>4234</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="Z45">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -4738,10 +4876,13 @@
         <v>761</v>
       </c>
       <c r="Y46">
-        <v>20183</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+      <c r="Z46">
+        <v>20930</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -4815,10 +4956,13 @@
         <v>273</v>
       </c>
       <c r="Y47">
-        <v>8425</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="Z47">
+        <v>8725</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -4892,10 +5036,13 @@
         <v>32</v>
       </c>
       <c r="Y48">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="Z48">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -4969,10 +5116,13 @@
         <v>141</v>
       </c>
       <c r="Y49">
-        <v>2873</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="Z49">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -5046,10 +5196,13 @@
         <v>121</v>
       </c>
       <c r="Y50">
-        <v>3720</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="Z50">
+        <v>3894</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -5123,10 +5276,13 @@
         <v>434</v>
       </c>
       <c r="Y51">
-        <v>8555</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="Z51">
+        <v>8969</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -5200,10 +5356,13 @@
         <v>127</v>
       </c>
       <c r="Y52">
-        <v>1746</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="Z52">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -5277,10 +5436,13 @@
         <v>838</v>
       </c>
       <c r="Y53">
-        <v>22604</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+        <v>827</v>
+      </c>
+      <c r="Z53">
+        <v>23431</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -5354,10 +5516,13 @@
         <v>54</v>
       </c>
       <c r="Y54">
-        <v>1763</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="Z54">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -5431,10 +5596,13 @@
         <v>637</v>
       </c>
       <c r="Y55">
-        <v>19065</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+        <v>815</v>
+      </c>
+      <c r="Z55">
+        <v>19880</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -5508,10 +5676,13 @@
         <v>214</v>
       </c>
       <c r="Y56">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="Z56">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -5585,10 +5756,13 @@
         <v>336</v>
       </c>
       <c r="Y57">
-        <v>10351</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+      <c r="Z57">
+        <v>10840</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -5662,10 +5836,13 @@
         <v>37</v>
       </c>
       <c r="Y58">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="Z58">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -5739,10 +5916,13 @@
         <v>147</v>
       </c>
       <c r="Y59">
-        <v>4235</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="Z59">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -5816,10 +5996,13 @@
         <v>439</v>
       </c>
       <c r="Y60">
-        <v>12248</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+      <c r="Z60">
+        <v>12688</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -5893,10 +6076,13 @@
         <v>330</v>
       </c>
       <c r="Y61">
-        <v>6996</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="Z61">
+        <v>7359</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -5970,10 +6156,13 @@
         <v>101</v>
       </c>
       <c r="Y62">
-        <v>1946</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="Z62">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -6047,10 +6236,13 @@
         <v>119</v>
       </c>
       <c r="Y63">
-        <v>4134</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="Z63">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -6124,10 +6316,13 @@
         <v>1412</v>
       </c>
       <c r="Y64">
-        <v>71244</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+      <c r="Z64">
+        <v>72594</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -6201,10 +6396,13 @@
         <v>149</v>
       </c>
       <c r="Y65">
-        <v>2751</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="Z65">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -6278,10 +6476,13 @@
         <v>58</v>
       </c>
       <c r="Y66">
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="Z66">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -6355,10 +6556,13 @@
         <v>294</v>
       </c>
       <c r="Y67">
-        <v>8663</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+      <c r="Z67">
+        <v>8974</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -6432,10 +6636,13 @@
         <v>51</v>
       </c>
       <c r="Y68">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="Z68">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -6509,10 +6716,13 @@
         <v>555</v>
       </c>
       <c r="Y69">
-        <v>15328</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+      <c r="Z69">
+        <v>15952</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -6586,10 +6796,13 @@
         <v>1482</v>
       </c>
       <c r="Y70">
-        <v>40476</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+        <v>1655</v>
+      </c>
+      <c r="Z70">
+        <v>42131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -6663,10 +6876,13 @@
         <v>502</v>
       </c>
       <c r="Y71">
-        <v>5928</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+      <c r="Z71">
+        <v>6189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -6740,10 +6956,13 @@
         <v>116</v>
       </c>
       <c r="Y72">
-        <v>2590</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="Z72">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -6817,10 +7036,13 @@
         <v>775</v>
       </c>
       <c r="Y73">
-        <v>18190</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+        <v>782</v>
+      </c>
+      <c r="Z73">
+        <v>18972</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -6894,10 +7116,13 @@
         <v>318</v>
       </c>
       <c r="Y74">
-        <v>7277</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+      <c r="Z74">
+        <v>7692</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" s="1" customFormat="1">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
@@ -6971,15 +7196,18 @@
         <v>26166</v>
       </c>
       <c r="Y75" s="1">
-        <v>710924</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+        <v>27230</v>
+      </c>
+      <c r="Z75" s="1">
+        <v>738154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26">
       <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26">
       <c r="A78" s="2" t="s">
         <v>76</v>
       </c>

--- a/initial_claims/WI/WI_data.xlsx
+++ b/initial_claims/WI/WI_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/Documents/GitHub/coronavirus-unemployment/initial_claims/WI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62F18855-4D90-4B48-9891-348CEADBFB4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{348A0D9C-BC6C-DF4E-B56A-06408B64BCE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29040" yWindow="0" windowWidth="29040" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t>Grand Total</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>UI Week 24</t>
+  </si>
+  <si>
+    <t>UI Week 25</t>
   </si>
 </sst>
 </file>
@@ -1181,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z78"/>
+  <dimension ref="A1:AA78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1199,10 +1202,10 @@
     <col min="22" max="22" width="11.33203125" customWidth="1"/>
     <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1">
+    <row r="1" spans="1:27" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
@@ -1279,10 +1282,13 @@
         <v>100</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1359,10 +1365,13 @@
         <v>41</v>
       </c>
       <c r="Z2">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+        <v>51</v>
+      </c>
+      <c r="AA2">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1439,10 +1448,13 @@
         <v>53</v>
       </c>
       <c r="Z3">
-        <v>2199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
+        <v>107</v>
+      </c>
+      <c r="AA3">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1519,10 +1531,13 @@
         <v>193</v>
       </c>
       <c r="Z4">
-        <v>5536</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
+        <v>142</v>
+      </c>
+      <c r="AA4">
+        <v>5678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1599,10 +1614,13 @@
         <v>41</v>
       </c>
       <c r="Z5">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
+        <v>67</v>
+      </c>
+      <c r="AA5">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1679,10 +1697,13 @@
         <v>1033</v>
       </c>
       <c r="Z6">
-        <v>31081</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
+        <v>983</v>
+      </c>
+      <c r="AA6">
+        <v>32064</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1759,10 +1780,13 @@
         <v>37</v>
       </c>
       <c r="Z7">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+        <v>20</v>
+      </c>
+      <c r="AA7">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1839,10 +1863,13 @@
         <v>34</v>
       </c>
       <c r="Z8">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
+        <v>34</v>
+      </c>
+      <c r="AA8">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1919,10 +1946,13 @@
         <v>298</v>
       </c>
       <c r="Z9">
-        <v>6909</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
+        <v>354</v>
+      </c>
+      <c r="AA9">
+        <v>7263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1999,10 +2029,13 @@
         <v>208</v>
       </c>
       <c r="Z10">
-        <v>6890</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+        <v>189</v>
+      </c>
+      <c r="AA10">
+        <v>7079</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2079,10 +2112,13 @@
         <v>247</v>
       </c>
       <c r="Z11">
-        <v>3456</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+        <v>160</v>
+      </c>
+      <c r="AA11">
+        <v>3616</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2159,10 +2195,13 @@
         <v>351</v>
       </c>
       <c r="Z12">
-        <v>8821</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+        <v>250</v>
+      </c>
+      <c r="AA12">
+        <v>9071</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2239,10 +2278,13 @@
         <v>45</v>
       </c>
       <c r="Z13">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
+        <v>42</v>
+      </c>
+      <c r="AA13">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2319,10 +2361,13 @@
         <v>2349</v>
       </c>
       <c r="Z14">
-        <v>55664</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
+        <v>2351</v>
+      </c>
+      <c r="AA14">
+        <v>58015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2399,10 +2444,13 @@
         <v>398</v>
       </c>
       <c r="Z15">
-        <v>10272</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
+        <v>402</v>
+      </c>
+      <c r="AA15">
+        <v>10674</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2479,10 +2527,13 @@
         <v>73</v>
       </c>
       <c r="Z16">
-        <v>3302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
+        <v>62</v>
+      </c>
+      <c r="AA16">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2559,10 +2610,13 @@
         <v>108</v>
       </c>
       <c r="Z17">
-        <v>3301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
+        <v>120</v>
+      </c>
+      <c r="AA17">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2639,10 +2693,13 @@
         <v>154</v>
       </c>
       <c r="Z18">
-        <v>4167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
+        <v>113</v>
+      </c>
+      <c r="AA18">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2719,10 +2776,13 @@
         <v>359</v>
       </c>
       <c r="Z19">
-        <v>11480</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
+        <v>378</v>
+      </c>
+      <c r="AA19">
+        <v>11858</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2799,10 +2859,13 @@
         <v>16</v>
       </c>
       <c r="Z20">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
+        <v>18</v>
+      </c>
+      <c r="AA20">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2879,10 +2942,13 @@
         <v>494</v>
       </c>
       <c r="Z21">
-        <v>13071</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
+        <v>384</v>
+      </c>
+      <c r="AA21">
+        <v>13455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2959,10 +3025,13 @@
         <v>41</v>
       </c>
       <c r="Z22">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
+        <v>28</v>
+      </c>
+      <c r="AA22">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3039,10 +3108,13 @@
         <v>159</v>
       </c>
       <c r="Z23">
-        <v>4629</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
+        <v>144</v>
+      </c>
+      <c r="AA23">
+        <v>4773</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3119,10 +3191,13 @@
         <v>177</v>
       </c>
       <c r="Z24">
-        <v>3660</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26">
+        <v>138</v>
+      </c>
+      <c r="AA24">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3199,10 +3274,13 @@
         <v>53</v>
       </c>
       <c r="Z25">
-        <v>2611</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26">
+        <v>51</v>
+      </c>
+      <c r="AA25">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3279,10 +3357,13 @@
         <v>140</v>
       </c>
       <c r="Z26">
-        <v>3570</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26">
+        <v>87</v>
+      </c>
+      <c r="AA26">
+        <v>3657</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3359,10 +3440,13 @@
         <v>19</v>
       </c>
       <c r="Z27">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26">
+        <v>20</v>
+      </c>
+      <c r="AA27">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3439,10 +3523,13 @@
         <v>96</v>
       </c>
       <c r="Z28">
-        <v>2697</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26">
+        <v>79</v>
+      </c>
+      <c r="AA28">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3519,10 +3606,13 @@
         <v>390</v>
       </c>
       <c r="Z29">
-        <v>8959</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26">
+        <v>332</v>
+      </c>
+      <c r="AA29">
+        <v>9291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3599,10 +3689,13 @@
         <v>104</v>
       </c>
       <c r="Z30">
-        <v>3744</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26">
+        <v>102</v>
+      </c>
+      <c r="AA30">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3679,10 +3772,13 @@
         <v>482</v>
       </c>
       <c r="Z31">
-        <v>15133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26">
+        <v>419</v>
+      </c>
+      <c r="AA31">
+        <v>15552</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3759,10 +3855,13 @@
         <v>71</v>
       </c>
       <c r="Z32">
-        <v>2161</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26">
+        <v>57</v>
+      </c>
+      <c r="AA32">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3839,10 +3938,13 @@
         <v>589</v>
       </c>
       <c r="Z33">
-        <v>14002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26">
+        <v>634</v>
+      </c>
+      <c r="AA33">
+        <v>14636</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3919,10 +4021,13 @@
         <v>65</v>
       </c>
       <c r="Z34">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26">
+        <v>40</v>
+      </c>
+      <c r="AA34">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3999,10 +4104,13 @@
         <v>75</v>
       </c>
       <c r="Z35">
-        <v>1913</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26">
+        <v>100</v>
+      </c>
+      <c r="AA35">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -4079,10 +4187,13 @@
         <v>143</v>
       </c>
       <c r="Z36">
-        <v>3926</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26">
+        <v>161</v>
+      </c>
+      <c r="AA36">
+        <v>4087</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -4159,10 +4270,13 @@
         <v>350</v>
       </c>
       <c r="Z37">
-        <v>10818</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26">
+        <v>765</v>
+      </c>
+      <c r="AA37">
+        <v>11583</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -4239,10 +4353,13 @@
         <v>963</v>
       </c>
       <c r="Z38">
-        <v>19361</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26">
+        <v>790</v>
+      </c>
+      <c r="AA38">
+        <v>20151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -4319,10 +4436,13 @@
         <v>208</v>
       </c>
       <c r="Z39">
-        <v>6239</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26">
+        <v>205</v>
+      </c>
+      <c r="AA39">
+        <v>6444</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -4399,10 +4519,13 @@
         <v>61</v>
       </c>
       <c r="Z40">
-        <v>2395</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26">
+        <v>48</v>
+      </c>
+      <c r="AA40">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -4479,10 +4602,13 @@
         <v>24</v>
       </c>
       <c r="Z41">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26">
+        <v>14</v>
+      </c>
+      <c r="AA41">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -4559,10 +4685,13 @@
         <v>4934</v>
       </c>
       <c r="Z42">
-        <v>119797</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26">
+        <v>4759</v>
+      </c>
+      <c r="AA42">
+        <v>124556</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -4639,10 +4768,13 @@
         <v>192</v>
       </c>
       <c r="Z43">
-        <v>4932</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26">
+        <v>165</v>
+      </c>
+      <c r="AA43">
+        <v>5097</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -4719,10 +4851,13 @@
         <v>116</v>
       </c>
       <c r="Z44">
-        <v>4003</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26">
+        <v>109</v>
+      </c>
+      <c r="AA44">
+        <v>4112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -4799,10 +4934,13 @@
         <v>130</v>
       </c>
       <c r="Z45">
-        <v>4364</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26">
+        <v>116</v>
+      </c>
+      <c r="AA45">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -4879,10 +5017,13 @@
         <v>747</v>
       </c>
       <c r="Z46">
-        <v>20930</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26">
+        <v>951</v>
+      </c>
+      <c r="AA46">
+        <v>21881</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -4959,10 +5100,13 @@
         <v>300</v>
       </c>
       <c r="Z47">
-        <v>8725</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26">
+        <v>340</v>
+      </c>
+      <c r="AA47">
+        <v>9065</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -5039,10 +5183,13 @@
         <v>19</v>
       </c>
       <c r="Z48">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26">
+        <v>14</v>
+      </c>
+      <c r="AA48">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -5119,10 +5266,13 @@
         <v>111</v>
       </c>
       <c r="Z49">
-        <v>2984</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26">
+        <v>93</v>
+      </c>
+      <c r="AA49">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -5199,10 +5349,13 @@
         <v>174</v>
       </c>
       <c r="Z50">
-        <v>3894</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26">
+        <v>151</v>
+      </c>
+      <c r="AA50">
+        <v>4045</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -5279,10 +5432,13 @@
         <v>414</v>
       </c>
       <c r="Z51">
-        <v>8969</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26">
+        <v>443</v>
+      </c>
+      <c r="AA51">
+        <v>9412</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -5359,10 +5515,13 @@
         <v>78</v>
       </c>
       <c r="Z52">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26">
+        <v>71</v>
+      </c>
+      <c r="AA52">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -5439,10 +5598,13 @@
         <v>827</v>
       </c>
       <c r="Z53">
-        <v>23431</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26">
+        <v>759</v>
+      </c>
+      <c r="AA53">
+        <v>24190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -5519,10 +5681,13 @@
         <v>90</v>
       </c>
       <c r="Z54">
-        <v>1853</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26">
+        <v>48</v>
+      </c>
+      <c r="AA54">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -5599,10 +5764,13 @@
         <v>815</v>
       </c>
       <c r="Z55">
-        <v>19880</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26">
+        <v>935</v>
+      </c>
+      <c r="AA55">
+        <v>20815</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -5679,10 +5847,13 @@
         <v>73</v>
       </c>
       <c r="Z56">
-        <v>2535</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26">
+        <v>67</v>
+      </c>
+      <c r="AA56">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -5759,10 +5930,13 @@
         <v>489</v>
       </c>
       <c r="Z57">
-        <v>10840</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26">
+        <v>275</v>
+      </c>
+      <c r="AA57">
+        <v>11115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -5839,10 +6013,13 @@
         <v>53</v>
       </c>
       <c r="Z58">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26">
+        <v>91</v>
+      </c>
+      <c r="AA58">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -5919,10 +6096,13 @@
         <v>162</v>
       </c>
       <c r="Z59">
-        <v>4397</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26">
+        <v>150</v>
+      </c>
+      <c r="AA59">
+        <v>4547</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -5999,10 +6179,13 @@
         <v>440</v>
       </c>
       <c r="Z60">
-        <v>12688</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26">
+        <v>355</v>
+      </c>
+      <c r="AA60">
+        <v>13043</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -6079,10 +6262,13 @@
         <v>363</v>
       </c>
       <c r="Z61">
-        <v>7359</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26">
+        <v>324</v>
+      </c>
+      <c r="AA61">
+        <v>7683</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -6159,10 +6345,13 @@
         <v>145</v>
       </c>
       <c r="Z62">
-        <v>2091</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26">
+        <v>103</v>
+      </c>
+      <c r="AA62">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -6239,10 +6428,13 @@
         <v>119</v>
       </c>
       <c r="Z63">
-        <v>4253</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26">
+        <v>123</v>
+      </c>
+      <c r="AA63">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -6319,10 +6511,13 @@
         <v>1350</v>
       </c>
       <c r="Z64">
-        <v>72594</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26">
+        <v>1464</v>
+      </c>
+      <c r="AA64">
+        <v>74058</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -6399,10 +6594,13 @@
         <v>100</v>
       </c>
       <c r="Z65">
-        <v>2851</v>
-      </c>
-    </row>
-    <row r="66" spans="1:26">
+        <v>102</v>
+      </c>
+      <c r="AA65">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -6479,10 +6677,13 @@
         <v>50</v>
       </c>
       <c r="Z66">
-        <v>2170</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26">
+        <v>51</v>
+      </c>
+      <c r="AA66">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -6559,10 +6760,13 @@
         <v>311</v>
       </c>
       <c r="Z67">
-        <v>8974</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26">
+        <v>299</v>
+      </c>
+      <c r="AA67">
+        <v>9273</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -6639,10 +6843,13 @@
         <v>58</v>
       </c>
       <c r="Z68">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26">
+        <v>44</v>
+      </c>
+      <c r="AA68">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -6719,10 +6926,13 @@
         <v>624</v>
       </c>
       <c r="Z69">
-        <v>15952</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26">
+        <v>670</v>
+      </c>
+      <c r="AA69">
+        <v>16622</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -6799,10 +7009,13 @@
         <v>1655</v>
       </c>
       <c r="Z70">
-        <v>42131</v>
-      </c>
-    </row>
-    <row r="71" spans="1:26">
+        <v>1645</v>
+      </c>
+      <c r="AA70">
+        <v>43776</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -6879,10 +7092,13 @@
         <v>261</v>
       </c>
       <c r="Z71">
-        <v>6189</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26">
+        <v>487</v>
+      </c>
+      <c r="AA71">
+        <v>6676</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -6959,10 +7175,13 @@
         <v>91</v>
       </c>
       <c r="Z72">
-        <v>2681</v>
-      </c>
-    </row>
-    <row r="73" spans="1:26">
+        <v>108</v>
+      </c>
+      <c r="AA72">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -7039,10 +7258,13 @@
         <v>782</v>
       </c>
       <c r="Z73">
-        <v>18972</v>
-      </c>
-    </row>
-    <row r="74" spans="1:26">
+        <v>931</v>
+      </c>
+      <c r="AA73">
+        <v>19903</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -7119,10 +7341,13 @@
         <v>415</v>
       </c>
       <c r="Z74">
-        <v>7692</v>
-      </c>
-    </row>
-    <row r="75" spans="1:26" s="1" customFormat="1">
+        <v>331</v>
+      </c>
+      <c r="AA74">
+        <v>8023</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" s="1" customFormat="1">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
@@ -7199,15 +7424,18 @@
         <v>27230</v>
       </c>
       <c r="Z75" s="1">
-        <v>738154</v>
-      </c>
-    </row>
-    <row r="77" spans="1:26">
+        <v>27015</v>
+      </c>
+      <c r="AA75" s="1">
+        <v>765169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27">
       <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:27">
       <c r="A78" s="2" t="s">
         <v>76</v>
       </c>

--- a/initial_claims/WI/WI_data.xlsx
+++ b/initial_claims/WI/WI_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/Documents/GitHub/coronavirus-unemployment/initial_claims/WI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{348A0D9C-BC6C-DF4E-B56A-06408B64BCE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35F94ECB-AA3B-2043-92B9-E4557C0C2723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-29040" yWindow="0" windowWidth="29040" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
   <si>
     <t>Grand Total</t>
   </si>
@@ -334,6 +334,15 @@
   </si>
   <si>
     <t>UI Week 25</t>
+  </si>
+  <si>
+    <t>UI Week 26</t>
+  </si>
+  <si>
+    <t>UI Week 27</t>
+  </si>
+  <si>
+    <t>UI Week 28</t>
   </si>
 </sst>
 </file>
@@ -1184,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA78"/>
+  <dimension ref="A1:AD78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="Q57" sqref="Q57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1202,10 +1211,10 @@
     <col min="22" max="22" width="11.33203125" customWidth="1"/>
     <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="30" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1">
+    <row r="1" spans="1:30" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>74</v>
       </c>
@@ -1285,10 +1294,19 @@
         <v>101</v>
       </c>
       <c r="AA1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1368,10 +1386,19 @@
         <v>51</v>
       </c>
       <c r="AA2">
-        <v>1439</v>
+        <v>45</v>
+      </c>
+      <c r="AB2">
+        <v>51</v>
+      </c>
+      <c r="AC2">
+        <v>59</v>
+      </c>
+      <c r="AD2">
+        <v>1594</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1451,10 +1478,19 @@
         <v>107</v>
       </c>
       <c r="AA3">
-        <v>2306</v>
+        <v>81</v>
+      </c>
+      <c r="AB3">
+        <v>63</v>
+      </c>
+      <c r="AC3">
+        <v>68</v>
+      </c>
+      <c r="AD3">
+        <v>2518</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1534,10 +1570,19 @@
         <v>142</v>
       </c>
       <c r="AA4">
-        <v>5678</v>
+        <v>205</v>
+      </c>
+      <c r="AB4">
+        <v>277</v>
+      </c>
+      <c r="AC4">
+        <v>214</v>
+      </c>
+      <c r="AD4">
+        <v>6374</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1617,10 +1662,19 @@
         <v>67</v>
       </c>
       <c r="AA5">
-        <v>1610</v>
+        <v>66</v>
+      </c>
+      <c r="AB5">
+        <v>53</v>
+      </c>
+      <c r="AC5">
+        <v>68</v>
+      </c>
+      <c r="AD5">
+        <v>1797</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1700,10 +1754,19 @@
         <v>983</v>
       </c>
       <c r="AA6">
-        <v>32064</v>
+        <v>963</v>
+      </c>
+      <c r="AB6">
+        <v>982</v>
+      </c>
+      <c r="AC6">
+        <v>1237</v>
+      </c>
+      <c r="AD6">
+        <v>35246</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1783,10 +1846,19 @@
         <v>20</v>
       </c>
       <c r="AA7">
-        <v>1184</v>
+        <v>38</v>
+      </c>
+      <c r="AB7">
+        <v>45</v>
+      </c>
+      <c r="AC7">
+        <v>43</v>
+      </c>
+      <c r="AD7">
+        <v>1310</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1866,10 +1938,19 @@
         <v>34</v>
       </c>
       <c r="AA8">
-        <v>1423</v>
+        <v>48</v>
+      </c>
+      <c r="AB8">
+        <v>58</v>
+      </c>
+      <c r="AC8">
+        <v>71</v>
+      </c>
+      <c r="AD8">
+        <v>1600</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1949,10 +2030,19 @@
         <v>354</v>
       </c>
       <c r="AA9">
-        <v>7263</v>
+        <v>284</v>
+      </c>
+      <c r="AB9">
+        <v>283</v>
+      </c>
+      <c r="AC9">
+        <v>328</v>
+      </c>
+      <c r="AD9">
+        <v>8158</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2032,10 +2122,19 @@
         <v>189</v>
       </c>
       <c r="AA10">
-        <v>7079</v>
+        <v>197</v>
+      </c>
+      <c r="AB10">
+        <v>232</v>
+      </c>
+      <c r="AC10">
+        <v>274</v>
+      </c>
+      <c r="AD10">
+        <v>7782</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2115,10 +2214,19 @@
         <v>160</v>
       </c>
       <c r="AA11">
-        <v>3616</v>
+        <v>136</v>
+      </c>
+      <c r="AB11">
+        <v>248</v>
+      </c>
+      <c r="AC11">
+        <v>283</v>
+      </c>
+      <c r="AD11">
+        <v>4283</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2198,10 +2306,19 @@
         <v>250</v>
       </c>
       <c r="AA12">
-        <v>9071</v>
+        <v>291</v>
+      </c>
+      <c r="AB12">
+        <v>362</v>
+      </c>
+      <c r="AC12">
+        <v>419</v>
+      </c>
+      <c r="AD12">
+        <v>10143</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2281,10 +2398,19 @@
         <v>42</v>
       </c>
       <c r="AA13">
-        <v>1763</v>
+        <v>43</v>
+      </c>
+      <c r="AB13">
+        <v>49</v>
+      </c>
+      <c r="AC13">
+        <v>62</v>
+      </c>
+      <c r="AD13">
+        <v>1917</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2364,10 +2490,19 @@
         <v>2351</v>
       </c>
       <c r="AA14">
-        <v>58015</v>
+        <v>2142</v>
+      </c>
+      <c r="AB14">
+        <v>2616</v>
+      </c>
+      <c r="AC14">
+        <v>2712</v>
+      </c>
+      <c r="AD14">
+        <v>65485</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2447,10 +2582,19 @@
         <v>402</v>
       </c>
       <c r="AA15">
-        <v>10674</v>
+        <v>523</v>
+      </c>
+      <c r="AB15">
+        <v>610</v>
+      </c>
+      <c r="AC15">
+        <v>677</v>
+      </c>
+      <c r="AD15">
+        <v>12484</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2530,10 +2674,19 @@
         <v>62</v>
       </c>
       <c r="AA16">
-        <v>3364</v>
+        <v>72</v>
+      </c>
+      <c r="AB16">
+        <v>119</v>
+      </c>
+      <c r="AC16">
+        <v>150</v>
+      </c>
+      <c r="AD16">
+        <v>3705</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2613,10 +2766,19 @@
         <v>120</v>
       </c>
       <c r="AA17">
-        <v>3421</v>
+        <v>114</v>
+      </c>
+      <c r="AB17">
+        <v>129</v>
+      </c>
+      <c r="AC17">
+        <v>138</v>
+      </c>
+      <c r="AD17">
+        <v>3802</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2696,10 +2858,19 @@
         <v>113</v>
       </c>
       <c r="AA18">
-        <v>4280</v>
+        <v>120</v>
+      </c>
+      <c r="AB18">
+        <v>154</v>
+      </c>
+      <c r="AC18">
+        <v>170</v>
+      </c>
+      <c r="AD18">
+        <v>4724</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2779,10 +2950,19 @@
         <v>378</v>
       </c>
       <c r="AA19">
-        <v>11858</v>
+        <v>360</v>
+      </c>
+      <c r="AB19">
+        <v>427</v>
+      </c>
+      <c r="AC19">
+        <v>504</v>
+      </c>
+      <c r="AD19">
+        <v>13149</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2862,10 +3042,19 @@
         <v>18</v>
       </c>
       <c r="AA20">
-        <v>464</v>
+        <v>13</v>
+      </c>
+      <c r="AB20">
+        <v>26</v>
+      </c>
+      <c r="AC20">
+        <v>21</v>
+      </c>
+      <c r="AD20">
+        <v>524</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2945,10 +3134,19 @@
         <v>384</v>
       </c>
       <c r="AA21">
-        <v>13455</v>
+        <v>428</v>
+      </c>
+      <c r="AB21">
+        <v>580</v>
+      </c>
+      <c r="AC21">
+        <v>561</v>
+      </c>
+      <c r="AD21">
+        <v>15024</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3028,10 +3226,19 @@
         <v>28</v>
       </c>
       <c r="AA22">
-        <v>1334</v>
+        <v>29</v>
+      </c>
+      <c r="AB22">
+        <v>44</v>
+      </c>
+      <c r="AC22">
+        <v>55</v>
+      </c>
+      <c r="AD22">
+        <v>1462</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3111,10 +3318,19 @@
         <v>144</v>
       </c>
       <c r="AA23">
-        <v>4773</v>
+        <v>133</v>
+      </c>
+      <c r="AB23">
+        <v>175</v>
+      </c>
+      <c r="AC23">
+        <v>219</v>
+      </c>
+      <c r="AD23">
+        <v>5300</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3194,10 +3410,19 @@
         <v>138</v>
       </c>
       <c r="AA24">
-        <v>3798</v>
+        <v>172</v>
+      </c>
+      <c r="AB24">
+        <v>198</v>
+      </c>
+      <c r="AC24">
+        <v>194</v>
+      </c>
+      <c r="AD24">
+        <v>4362</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3277,10 +3502,19 @@
         <v>51</v>
       </c>
       <c r="AA25">
-        <v>2662</v>
+        <v>83</v>
+      </c>
+      <c r="AB25">
+        <v>70</v>
+      </c>
+      <c r="AC25">
+        <v>121</v>
+      </c>
+      <c r="AD25">
+        <v>2936</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -3360,10 +3594,19 @@
         <v>87</v>
       </c>
       <c r="AA26">
-        <v>3657</v>
+        <v>93</v>
+      </c>
+      <c r="AB26">
+        <v>174</v>
+      </c>
+      <c r="AC26">
+        <v>119</v>
+      </c>
+      <c r="AD26">
+        <v>4043</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:30">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3443,10 +3686,19 @@
         <v>20</v>
       </c>
       <c r="AA27">
-        <v>662</v>
+        <v>18</v>
+      </c>
+      <c r="AB27">
+        <v>19</v>
+      </c>
+      <c r="AC27">
+        <v>35</v>
+      </c>
+      <c r="AD27">
+        <v>734</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:30">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3526,10 +3778,19 @@
         <v>79</v>
       </c>
       <c r="AA28">
-        <v>2776</v>
+        <v>82</v>
+      </c>
+      <c r="AB28">
+        <v>120</v>
+      </c>
+      <c r="AC28">
+        <v>169</v>
+      </c>
+      <c r="AD28">
+        <v>3147</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:30">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3609,10 +3870,19 @@
         <v>332</v>
       </c>
       <c r="AA29">
-        <v>9291</v>
+        <v>350</v>
+      </c>
+      <c r="AB29">
+        <v>333</v>
+      </c>
+      <c r="AC29">
+        <v>419</v>
+      </c>
+      <c r="AD29">
+        <v>10393</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:30">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3692,10 +3962,19 @@
         <v>102</v>
       </c>
       <c r="AA30">
-        <v>3846</v>
+        <v>145</v>
+      </c>
+      <c r="AB30">
+        <v>300</v>
+      </c>
+      <c r="AC30">
+        <v>293</v>
+      </c>
+      <c r="AD30">
+        <v>4584</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:30">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3775,10 +4054,19 @@
         <v>419</v>
       </c>
       <c r="AA31">
-        <v>15552</v>
+        <v>495</v>
+      </c>
+      <c r="AB31">
+        <v>542</v>
+      </c>
+      <c r="AC31">
+        <v>637</v>
+      </c>
+      <c r="AD31">
+        <v>17226</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:30">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3858,10 +4146,19 @@
         <v>57</v>
       </c>
       <c r="AA32">
-        <v>2218</v>
+        <v>49</v>
+      </c>
+      <c r="AB32">
+        <v>72</v>
+      </c>
+      <c r="AC32">
+        <v>92</v>
+      </c>
+      <c r="AD32">
+        <v>2431</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:30">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3941,10 +4238,19 @@
         <v>634</v>
       </c>
       <c r="AA33">
-        <v>14636</v>
+        <v>767</v>
+      </c>
+      <c r="AB33">
+        <v>595</v>
+      </c>
+      <c r="AC33">
+        <v>543</v>
+      </c>
+      <c r="AD33">
+        <v>16541</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:30">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -4024,10 +4330,19 @@
         <v>40</v>
       </c>
       <c r="AA34">
-        <v>1553</v>
+        <v>46</v>
+      </c>
+      <c r="AB34">
+        <v>83</v>
+      </c>
+      <c r="AC34">
+        <v>60</v>
+      </c>
+      <c r="AD34">
+        <v>1742</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:30">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -4107,10 +4422,19 @@
         <v>100</v>
       </c>
       <c r="AA35">
-        <v>2013</v>
+        <v>112</v>
+      </c>
+      <c r="AB35">
+        <v>104</v>
+      </c>
+      <c r="AC35">
+        <v>123</v>
+      </c>
+      <c r="AD35">
+        <v>2352</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:30">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -4190,10 +4514,19 @@
         <v>161</v>
       </c>
       <c r="AA36">
-        <v>4087</v>
+        <v>106</v>
+      </c>
+      <c r="AB36">
+        <v>140</v>
+      </c>
+      <c r="AC36">
+        <v>156</v>
+      </c>
+      <c r="AD36">
+        <v>4489</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:30">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -4273,10 +4606,19 @@
         <v>765</v>
       </c>
       <c r="AA37">
-        <v>11583</v>
+        <v>520</v>
+      </c>
+      <c r="AB37">
+        <v>495</v>
+      </c>
+      <c r="AC37">
+        <v>641</v>
+      </c>
+      <c r="AD37">
+        <v>13239</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:30">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -4356,10 +4698,19 @@
         <v>790</v>
       </c>
       <c r="AA38">
-        <v>20151</v>
+        <v>680</v>
+      </c>
+      <c r="AB38">
+        <v>847</v>
+      </c>
+      <c r="AC38">
+        <v>761</v>
+      </c>
+      <c r="AD38">
+        <v>22439</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:30">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -4439,10 +4790,19 @@
         <v>205</v>
       </c>
       <c r="AA39">
-        <v>6444</v>
+        <v>299</v>
+      </c>
+      <c r="AB39">
+        <v>419</v>
+      </c>
+      <c r="AC39">
+        <v>416</v>
+      </c>
+      <c r="AD39">
+        <v>7578</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:30">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -4522,10 +4882,19 @@
         <v>48</v>
       </c>
       <c r="AA40">
-        <v>2443</v>
+        <v>66</v>
+      </c>
+      <c r="AB40">
+        <v>70</v>
+      </c>
+      <c r="AC40">
+        <v>80</v>
+      </c>
+      <c r="AD40">
+        <v>2659</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:30">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -4605,10 +4974,19 @@
         <v>14</v>
       </c>
       <c r="AA41">
-        <v>662</v>
+        <v>20</v>
+      </c>
+      <c r="AB41">
+        <v>27</v>
+      </c>
+      <c r="AC41">
+        <v>23</v>
+      </c>
+      <c r="AD41">
+        <v>732</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:30">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -4688,10 +5066,19 @@
         <v>4759</v>
       </c>
       <c r="AA42">
-        <v>124556</v>
+        <v>4537</v>
+      </c>
+      <c r="AB42">
+        <v>5270</v>
+      </c>
+      <c r="AC42">
+        <v>6166</v>
+      </c>
+      <c r="AD42">
+        <v>140529</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:30">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -4771,10 +5158,19 @@
         <v>165</v>
       </c>
       <c r="AA43">
-        <v>5097</v>
+        <v>210</v>
+      </c>
+      <c r="AB43">
+        <v>389</v>
+      </c>
+      <c r="AC43">
+        <v>383</v>
+      </c>
+      <c r="AD43">
+        <v>6079</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:30">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -4854,10 +5250,19 @@
         <v>109</v>
       </c>
       <c r="AA44">
-        <v>4112</v>
+        <v>122</v>
+      </c>
+      <c r="AB44">
+        <v>143</v>
+      </c>
+      <c r="AC44">
+        <v>192</v>
+      </c>
+      <c r="AD44">
+        <v>4569</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:30">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -4937,10 +5342,19 @@
         <v>116</v>
       </c>
       <c r="AA45">
-        <v>4480</v>
+        <v>122</v>
+      </c>
+      <c r="AB45">
+        <v>153</v>
+      </c>
+      <c r="AC45">
+        <v>207</v>
+      </c>
+      <c r="AD45">
+        <v>4962</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:30">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -5020,10 +5434,19 @@
         <v>951</v>
       </c>
       <c r="AA46">
-        <v>21881</v>
+        <v>818</v>
+      </c>
+      <c r="AB46">
+        <v>782</v>
+      </c>
+      <c r="AC46">
+        <v>957</v>
+      </c>
+      <c r="AD46">
+        <v>24438</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:30">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -5103,10 +5526,19 @@
         <v>340</v>
       </c>
       <c r="AA47">
-        <v>9065</v>
+        <v>315</v>
+      </c>
+      <c r="AB47">
+        <v>427</v>
+      </c>
+      <c r="AC47">
+        <v>503</v>
+      </c>
+      <c r="AD47">
+        <v>10310</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:30">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -5186,10 +5618,19 @@
         <v>14</v>
       </c>
       <c r="AA48">
-        <v>622</v>
+        <v>19</v>
+      </c>
+      <c r="AB48">
+        <v>20</v>
+      </c>
+      <c r="AC48">
+        <v>34</v>
+      </c>
+      <c r="AD48">
+        <v>695</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:30">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -5269,10 +5710,19 @@
         <v>93</v>
       </c>
       <c r="AA49">
-        <v>3077</v>
+        <v>87</v>
+      </c>
+      <c r="AB49">
+        <v>113</v>
+      </c>
+      <c r="AC49">
+        <v>177</v>
+      </c>
+      <c r="AD49">
+        <v>3454</v>
       </c>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:30">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -5352,10 +5802,19 @@
         <v>151</v>
       </c>
       <c r="AA50">
-        <v>4045</v>
+        <v>124</v>
+      </c>
+      <c r="AB50">
+        <v>143</v>
+      </c>
+      <c r="AC50">
+        <v>196</v>
+      </c>
+      <c r="AD50">
+        <v>4508</v>
       </c>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:30">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -5435,10 +5894,19 @@
         <v>443</v>
       </c>
       <c r="AA51">
-        <v>9412</v>
+        <v>368</v>
+      </c>
+      <c r="AB51">
+        <v>493</v>
+      </c>
+      <c r="AC51">
+        <v>461</v>
+      </c>
+      <c r="AD51">
+        <v>10734</v>
       </c>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:30">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -5518,10 +5986,19 @@
         <v>71</v>
       </c>
       <c r="AA52">
-        <v>1895</v>
+        <v>86</v>
+      </c>
+      <c r="AB52">
+        <v>102</v>
+      </c>
+      <c r="AC52">
+        <v>119</v>
+      </c>
+      <c r="AD52">
+        <v>2202</v>
       </c>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:30">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -5601,10 +6078,19 @@
         <v>759</v>
       </c>
       <c r="AA53">
-        <v>24190</v>
+        <v>873</v>
+      </c>
+      <c r="AB53">
+        <v>841</v>
+      </c>
+      <c r="AC53">
+        <v>1022</v>
+      </c>
+      <c r="AD53">
+        <v>26926</v>
       </c>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:30">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -5684,10 +6170,19 @@
         <v>48</v>
       </c>
       <c r="AA54">
-        <v>1901</v>
+        <v>72</v>
+      </c>
+      <c r="AB54">
+        <v>61</v>
+      </c>
+      <c r="AC54">
+        <v>96</v>
+      </c>
+      <c r="AD54">
+        <v>2130</v>
       </c>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:30">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -5767,10 +6262,19 @@
         <v>935</v>
       </c>
       <c r="AA55">
-        <v>20815</v>
+        <v>857</v>
+      </c>
+      <c r="AB55">
+        <v>902</v>
+      </c>
+      <c r="AC55">
+        <v>880</v>
+      </c>
+      <c r="AD55">
+        <v>23454</v>
       </c>
     </row>
-    <row r="56" spans="1:27">
+    <row r="56" spans="1:30">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -5850,10 +6354,19 @@
         <v>67</v>
       </c>
       <c r="AA56">
-        <v>2602</v>
+        <v>64</v>
+      </c>
+      <c r="AB56">
+        <v>66</v>
+      </c>
+      <c r="AC56">
+        <v>73</v>
+      </c>
+      <c r="AD56">
+        <v>2805</v>
       </c>
     </row>
-    <row r="57" spans="1:27">
+    <row r="57" spans="1:30">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -5933,10 +6446,19 @@
         <v>275</v>
       </c>
       <c r="AA57">
-        <v>11115</v>
+        <v>504</v>
+      </c>
+      <c r="AB57">
+        <v>376</v>
+      </c>
+      <c r="AC57">
+        <v>662</v>
+      </c>
+      <c r="AD57">
+        <v>12657</v>
       </c>
     </row>
-    <row r="58" spans="1:27">
+    <row r="58" spans="1:30">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -6016,10 +6538,19 @@
         <v>91</v>
       </c>
       <c r="AA58">
-        <v>2118</v>
+        <v>57</v>
+      </c>
+      <c r="AB58">
+        <v>60</v>
+      </c>
+      <c r="AC58">
+        <v>58</v>
+      </c>
+      <c r="AD58">
+        <v>2293</v>
       </c>
     </row>
-    <row r="59" spans="1:27">
+    <row r="59" spans="1:30">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -6099,10 +6630,19 @@
         <v>150</v>
       </c>
       <c r="AA59">
-        <v>4547</v>
+        <v>145</v>
+      </c>
+      <c r="AB59">
+        <v>237</v>
+      </c>
+      <c r="AC59">
+        <v>203</v>
+      </c>
+      <c r="AD59">
+        <v>5132</v>
       </c>
     </row>
-    <row r="60" spans="1:27">
+    <row r="60" spans="1:30">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -6182,10 +6722,19 @@
         <v>355</v>
       </c>
       <c r="AA60">
-        <v>13043</v>
+        <v>386</v>
+      </c>
+      <c r="AB60">
+        <v>561</v>
+      </c>
+      <c r="AC60">
+        <v>681</v>
+      </c>
+      <c r="AD60">
+        <v>14671</v>
       </c>
     </row>
-    <row r="61" spans="1:27">
+    <row r="61" spans="1:30">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -6265,10 +6814,19 @@
         <v>324</v>
       </c>
       <c r="AA61">
-        <v>7683</v>
+        <v>287</v>
+      </c>
+      <c r="AB61">
+        <v>409</v>
+      </c>
+      <c r="AC61">
+        <v>459</v>
+      </c>
+      <c r="AD61">
+        <v>8838</v>
       </c>
     </row>
-    <row r="62" spans="1:27">
+    <row r="62" spans="1:30">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -6348,10 +6906,19 @@
         <v>103</v>
       </c>
       <c r="AA62">
-        <v>2194</v>
+        <v>92</v>
+      </c>
+      <c r="AB62">
+        <v>73</v>
+      </c>
+      <c r="AC62">
+        <v>94</v>
+      </c>
+      <c r="AD62">
+        <v>2453</v>
       </c>
     </row>
-    <row r="63" spans="1:27">
+    <row r="63" spans="1:30">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -6431,10 +6998,19 @@
         <v>123</v>
       </c>
       <c r="AA63">
-        <v>4376</v>
+        <v>107</v>
+      </c>
+      <c r="AB63">
+        <v>110</v>
+      </c>
+      <c r="AC63">
+        <v>146</v>
+      </c>
+      <c r="AD63">
+        <v>4739</v>
       </c>
     </row>
-    <row r="64" spans="1:27">
+    <row r="64" spans="1:30">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -6514,10 +7090,19 @@
         <v>1464</v>
       </c>
       <c r="AA64">
-        <v>74058</v>
+        <v>1403</v>
+      </c>
+      <c r="AB64">
+        <v>1607</v>
+      </c>
+      <c r="AC64">
+        <v>1699</v>
+      </c>
+      <c r="AD64">
+        <v>78767</v>
       </c>
     </row>
-    <row r="65" spans="1:27">
+    <row r="65" spans="1:30">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -6597,10 +7182,19 @@
         <v>102</v>
       </c>
       <c r="AA65">
-        <v>2953</v>
+        <v>138</v>
+      </c>
+      <c r="AB65">
+        <v>172</v>
+      </c>
+      <c r="AC65">
+        <v>181</v>
+      </c>
+      <c r="AD65">
+        <v>3444</v>
       </c>
     </row>
-    <row r="66" spans="1:27">
+    <row r="66" spans="1:30">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -6680,10 +7274,19 @@
         <v>51</v>
       </c>
       <c r="AA66">
-        <v>2221</v>
+        <v>50</v>
+      </c>
+      <c r="AB66">
+        <v>64</v>
+      </c>
+      <c r="AC66">
+        <v>76</v>
+      </c>
+      <c r="AD66">
+        <v>2411</v>
       </c>
     </row>
-    <row r="67" spans="1:27">
+    <row r="67" spans="1:30">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -6763,10 +7366,19 @@
         <v>299</v>
       </c>
       <c r="AA67">
-        <v>9273</v>
+        <v>319</v>
+      </c>
+      <c r="AB67">
+        <v>309</v>
+      </c>
+      <c r="AC67">
+        <v>434</v>
+      </c>
+      <c r="AD67">
+        <v>10335</v>
       </c>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:30">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -6846,10 +7458,19 @@
         <v>44</v>
       </c>
       <c r="AA68">
-        <v>1881</v>
+        <v>63</v>
+      </c>
+      <c r="AB68">
+        <v>71</v>
+      </c>
+      <c r="AC68">
+        <v>71</v>
+      </c>
+      <c r="AD68">
+        <v>2086</v>
       </c>
     </row>
-    <row r="69" spans="1:27">
+    <row r="69" spans="1:30">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -6929,10 +7550,19 @@
         <v>670</v>
       </c>
       <c r="AA69">
-        <v>16622</v>
+        <v>619</v>
+      </c>
+      <c r="AB69">
+        <v>796</v>
+      </c>
+      <c r="AC69">
+        <v>863</v>
+      </c>
+      <c r="AD69">
+        <v>18900</v>
       </c>
     </row>
-    <row r="70" spans="1:27">
+    <row r="70" spans="1:30">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -7012,10 +7642,19 @@
         <v>1645</v>
       </c>
       <c r="AA70">
-        <v>43776</v>
+        <v>1545</v>
+      </c>
+      <c r="AB70">
+        <v>1642</v>
+      </c>
+      <c r="AC70">
+        <v>1997</v>
+      </c>
+      <c r="AD70">
+        <v>48960</v>
       </c>
     </row>
-    <row r="71" spans="1:27">
+    <row r="71" spans="1:30">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -7095,10 +7734,19 @@
         <v>487</v>
       </c>
       <c r="AA71">
-        <v>6676</v>
+        <v>304</v>
+      </c>
+      <c r="AB71">
+        <v>362</v>
+      </c>
+      <c r="AC71">
+        <v>572</v>
+      </c>
+      <c r="AD71">
+        <v>7914</v>
       </c>
     </row>
-    <row r="72" spans="1:27">
+    <row r="72" spans="1:30">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -7178,10 +7826,19 @@
         <v>108</v>
       </c>
       <c r="AA72">
-        <v>2789</v>
+        <v>176</v>
+      </c>
+      <c r="AB72">
+        <v>115</v>
+      </c>
+      <c r="AC72">
+        <v>134</v>
+      </c>
+      <c r="AD72">
+        <v>3214</v>
       </c>
     </row>
-    <row r="73" spans="1:27">
+    <row r="73" spans="1:30">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -7261,10 +7918,19 @@
         <v>931</v>
       </c>
       <c r="AA73">
-        <v>19903</v>
+        <v>803</v>
+      </c>
+      <c r="AB73">
+        <v>834</v>
+      </c>
+      <c r="AC73">
+        <v>865</v>
+      </c>
+      <c r="AD73">
+        <v>22405</v>
       </c>
     </row>
-    <row r="74" spans="1:27">
+    <row r="74" spans="1:30">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -7344,10 +8010,19 @@
         <v>331</v>
       </c>
       <c r="AA74">
-        <v>8023</v>
+        <v>250</v>
+      </c>
+      <c r="AB74">
+        <v>314</v>
+      </c>
+      <c r="AC74">
+        <v>361</v>
+      </c>
+      <c r="AD74">
+        <v>8948</v>
       </c>
     </row>
-    <row r="75" spans="1:27" s="1" customFormat="1">
+    <row r="75" spans="1:30" s="1" customFormat="1">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
@@ -7427,15 +8102,24 @@
         <v>27015</v>
       </c>
       <c r="AA75" s="1">
-        <v>765169</v>
+        <v>26356</v>
+      </c>
+      <c r="AB75" s="1">
+        <v>30208</v>
+      </c>
+      <c r="AC75" s="1">
+        <v>34237</v>
+      </c>
+      <c r="AD75" s="1">
+        <v>855970</v>
       </c>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:30">
       <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:30">
       <c r="A78" s="2" t="s">
         <v>76</v>
       </c>
